--- a/Introduction-to-Data/L5-Analyze-Data/Misc/air-routes-sfo.xlsx
+++ b/Introduction-to-Data/L5-Analyze-Data/Misc/air-routes-sfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/Introduction-to-Data/L5-Analyze-Data/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BB3B7-5E00-EC4A-B09C-79EC48948BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB03810-E1C3-7845-B64B-477CD205F0D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="1720" windowWidth="26380" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1440" windowWidth="26380" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SFO routes" sheetId="6" r:id="rId1"/>
@@ -26,11 +26,20 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="3258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="3260">
   <si>
     <t>ABE</t>
   </si>
@@ -9814,6 +9823,12 @@
   </si>
   <si>
     <t>used countif</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(C2,airport_lookup, 2,FALSE) -&gt; first cell formula</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(what are you looking for, where to look, what column,  exact or not)</t>
   </si>
 </sst>
 </file>
@@ -9891,7 +9906,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -9908,12 +9923,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -9937,6 +9978,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11133,7 +11180,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AABB55F5-DEDD-AD4C-98BD-B63DFC80E96D}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AABB55F5-DEDD-AD4C-98BD-B63DFC80E96D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -11725,7 +11772,7 @@
   <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11734,7 +11781,7 @@
     <col min="3" max="3" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="70.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="16384" width="12.1640625" style="1"/>
   </cols>
@@ -11767,11 +11814,11 @@
         <v>231</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(A2,airline_lookup,2,FALSE)</f>
+        <f t="shared" ref="D2:D65" si="0">VLOOKUP(A2,airline_lookup,2,FALSE)</f>
         <v>American Airlines</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>VLOOKUP(C2,airport_lookup, 2,FALSE)</f>
+        <f t="shared" ref="E2:E65" si="1">VLOOKUP(C2,airport_lookup, 2,FALSE)</f>
         <v>Charlotte/Douglas International Airport</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -11796,11 +11843,11 @@
         <v>289</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(A3,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>VLOOKUP(C3,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Dallas/Fort Worth International Airport</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -11824,11 +11871,11 @@
         <v>1444</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(A4,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>VLOOKUP(C4,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Hong Kong International Airport</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -11841,7 +11888,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2350</v>
       </c>
@@ -11852,11 +11899,11 @@
         <v>469</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>VLOOKUP(A5,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>VLOOKUP(C5,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Henderson Executive Airport</v>
       </c>
     </row>
@@ -11871,15 +11918,18 @@
         <v>558</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>VLOOKUP(A6,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>VLOOKUP(C6,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>John F. Kennedy International Airport</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="F6" s="16" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2350</v>
       </c>
@@ -11890,12 +11940,15 @@
         <v>605</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>VLOOKUP(A7,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>VLOOKUP(C7,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Los Angeles International Airport</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>3259</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -11909,12 +11962,16 @@
         <v>1533</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>VLOOKUP(A8,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>VLOOKUP(C8,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>London Heathrow Airport</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>VLOOKUP(C3,airport_lookup,2,FALSE)</f>
+        <v>Dallas/Fort Worth International Airport</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -11928,11 +11985,11 @@
         <v>698</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>VLOOKUP(A9,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>VLOOKUP(C9,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Miami International Airport</v>
       </c>
     </row>
@@ -11947,11 +12004,11 @@
         <v>776</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>VLOOKUP(A10,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>VLOOKUP(C10,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Chicago O'hare International Airport</v>
       </c>
     </row>
@@ -11966,11 +12023,11 @@
         <v>801</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>VLOOKUP(A11,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>VLOOKUP(C11,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Portland International Airport</v>
       </c>
     </row>
@@ -11985,11 +12042,11 @@
         <v>813</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>VLOOKUP(A12,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>VLOOKUP(C12,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Philadelphia International Airport</v>
       </c>
     </row>
@@ -12004,11 +12061,11 @@
         <v>817</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>VLOOKUP(A13,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>VLOOKUP(C13,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Phoenix Sky Harbor International Airport</v>
       </c>
     </row>
@@ -12023,11 +12080,11 @@
         <v>853</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>VLOOKUP(A14,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>VLOOKUP(C14,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Palm Springs International Airport</v>
       </c>
     </row>
@@ -12042,11 +12099,11 @@
         <v>1729</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>VLOOKUP(A15,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>VLOOKUP(C15,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Lic Gustavo Diaz Ordaz International Air</v>
       </c>
     </row>
@@ -12061,11 +12118,11 @@
         <v>931</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>VLOOKUP(A16,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>American Airlines</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>VLOOKUP(C16,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Seattle/Tacoma International Airport</v>
       </c>
     </row>
@@ -12080,11 +12137,11 @@
         <v>1913</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>VLOOKUP(A17,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air Canada</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>VLOOKUP(C17,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Edmonton International Airport</v>
       </c>
     </row>
@@ -12099,11 +12156,11 @@
         <v>1935</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>VLOOKUP(A18,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air Canada</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>VLOOKUP(C18,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Montreal Dorval Airport</v>
       </c>
     </row>
@@ -12118,11 +12175,11 @@
         <v>1937</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>VLOOKUP(A19,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air Canada</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>VLOOKUP(C19,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Vancouver International Airport</v>
       </c>
     </row>
@@ -12137,11 +12194,11 @@
         <v>1945</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>VLOOKUP(A20,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air Canada</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>VLOOKUP(C20,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Calgary International Airport</v>
       </c>
     </row>
@@ -12156,11 +12213,11 @@
         <v>1947</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>VLOOKUP(A21,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air Canada</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>VLOOKUP(C21,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Victoria International Airport</v>
       </c>
     </row>
@@ -12175,11 +12232,11 @@
         <v>1951</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>VLOOKUP(A22,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air Canada</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>VLOOKUP(C22,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Lester B Pearson International Airport</v>
       </c>
     </row>
@@ -12194,11 +12251,11 @@
         <v>79</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>VLOOKUP(A23,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air France</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>VLOOKUP(C23,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -12213,11 +12270,11 @@
         <v>1255</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>VLOOKUP(A24,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air France</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>VLOOKUP(C24,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Charles De Gaulle International Airport</v>
       </c>
     </row>
@@ -12232,11 +12289,11 @@
         <v>473</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>VLOOKUP(A25,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air France</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>VLOOKUP(C25,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Honolulu International Airport</v>
       </c>
     </row>
@@ -12251,11 +12308,11 @@
         <v>1444</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>VLOOKUP(A26,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air India</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>VLOOKUP(C26,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Hong Kong International Airport</v>
       </c>
     </row>
@@ -12270,11 +12327,11 @@
         <v>1453</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>VLOOKUP(A27,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air India</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>VLOOKUP(C27,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Incheon International Airport</v>
       </c>
     </row>
@@ -12289,11 +12346,11 @@
         <v>79</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>VLOOKUP(A28,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Aeromexico</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>VLOOKUP(C28,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -12308,11 +12365,11 @@
         <v>1202</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>VLOOKUP(A29,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Aeromexico</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>VLOOKUP(C29,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>De Guanajuato International Airport</v>
       </c>
     </row>
@@ -12327,11 +12384,11 @@
         <v>1395</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>VLOOKUP(A30,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Aeromexico</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>VLOOKUP(C30,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Don Miguel Hidalgo International Airport</v>
       </c>
     </row>
@@ -12346,11 +12403,11 @@
         <v>1585</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>VLOOKUP(A31,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Aeromexico</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>VLOOKUP(C31,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Benito Juarez International Airport</v>
       </c>
     </row>
@@ -12365,11 +12422,11 @@
         <v>1595</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>VLOOKUP(A32,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Aeromexico</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>VLOOKUP(C32,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Mujica International Airport</v>
       </c>
     </row>
@@ -12384,11 +12441,11 @@
         <v>1729</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>VLOOKUP(A33,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Aeromexico</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>VLOOKUP(C33,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Lic Gustavo Diaz Ordaz International Air</v>
       </c>
     </row>
@@ -12403,11 +12460,11 @@
         <v>1777</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>VLOOKUP(A34,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Aeromexico</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>VLOOKUP(C34,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Los Cabos International Airport</v>
       </c>
     </row>
@@ -12422,11 +12479,11 @@
         <v>289</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>VLOOKUP(A35,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>VLOOKUP(C35,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Dallas/Fort Worth International Airport</v>
       </c>
     </row>
@@ -12441,11 +12498,11 @@
         <v>558</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>VLOOKUP(A36,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>VLOOKUP(C36,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>John F. Kennedy International Airport</v>
       </c>
     </row>
@@ -12460,11 +12517,11 @@
         <v>605</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>VLOOKUP(A37,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>VLOOKUP(C37,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Los Angeles International Airport</v>
       </c>
     </row>
@@ -12479,11 +12536,11 @@
         <v>698</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>VLOOKUP(A38,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>VLOOKUP(C38,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Miami International Airport</v>
       </c>
     </row>
@@ -12498,11 +12555,11 @@
         <v>776</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>VLOOKUP(A39,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>VLOOKUP(C39,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Chicago O'hare International Airport</v>
       </c>
     </row>
@@ -12517,11 +12574,11 @@
         <v>801</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>VLOOKUP(A40,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>VLOOKUP(C40,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Portland International Airport</v>
       </c>
     </row>
@@ -12536,11 +12593,11 @@
         <v>853</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>VLOOKUP(A41,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>VLOOKUP(C41,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Palm Springs International Airport</v>
       </c>
     </row>
@@ -12555,11 +12612,11 @@
         <v>1729</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>VLOOKUP(A42,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>VLOOKUP(C42,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Lic Gustavo Diaz Ordaz International Air</v>
       </c>
     </row>
@@ -12574,11 +12631,11 @@
         <v>931</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>VLOOKUP(A43,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>VLOOKUP(C43,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Seattle/Tacoma International Airport</v>
       </c>
     </row>
@@ -12593,11 +12650,11 @@
         <v>1777</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>VLOOKUP(A44,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>VLOOKUP(C44,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Los Cabos International Airport</v>
       </c>
     </row>
@@ -12612,11 +12669,11 @@
         <v>1757</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>VLOOKUP(A45,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Avianca</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>VLOOKUP(C45,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Comalapa International Airport</v>
       </c>
     </row>
@@ -12631,11 +12688,11 @@
         <v>1533</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>VLOOKUP(A46,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Finnair</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>VLOOKUP(C46,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -12650,11 +12707,11 @@
         <v>79</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>VLOOKUP(A47,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alitalia</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>VLOOKUP(C47,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -12669,11 +12726,11 @@
         <v>1255</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>VLOOKUP(A48,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Alitalia</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>VLOOKUP(C48,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Charles De Gaulle International Airport</v>
       </c>
     </row>
@@ -12688,11 +12745,11 @@
         <v>90</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>VLOOKUP(A49,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>JetBlue</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>VLOOKUP(C49,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Austin-Bergstrom International Airport</v>
       </c>
     </row>
@@ -12707,11 +12764,11 @@
         <v>147</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>VLOOKUP(A50,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>JetBlue</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>VLOOKUP(C50,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Boston Logan International Airport</v>
       </c>
     </row>
@@ -12726,11 +12783,11 @@
         <v>1357</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>VLOOKUP(A51,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>JetBlue</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>VLOOKUP(C51,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Dubai International Airport</v>
       </c>
     </row>
@@ -12745,11 +12802,11 @@
         <v>373</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>VLOOKUP(A52,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>JetBlue</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>VLOOKUP(C52,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Fort Lauderdale Hollywood International Airport</v>
       </c>
     </row>
@@ -12764,11 +12821,11 @@
         <v>558</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>VLOOKUP(A53,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>JetBlue</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>VLOOKUP(C53,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>John F. Kennedy International Airport</v>
       </c>
     </row>
@@ -12783,11 +12840,11 @@
         <v>628</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>VLOOKUP(A54,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>JetBlue</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>VLOOKUP(C54,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Long Beach Airport</v>
       </c>
     </row>
@@ -12802,11 +12859,11 @@
         <v>1533</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>VLOOKUP(A55,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>British Airways</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>VLOOKUP(C55,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -12821,11 +12878,11 @@
         <v>1868</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>VLOOKUP(A56,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>EVA Air</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>VLOOKUP(C56,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Chiang Kai-Shek International Airport</v>
       </c>
     </row>
@@ -12840,11 +12897,11 @@
         <v>1684</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>VLOOKUP(A57,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air China</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>VLOOKUP(C57,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Beijing Capital International Airport</v>
       </c>
     </row>
@@ -12859,11 +12916,11 @@
         <v>1727</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>VLOOKUP(A58,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Air China</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>VLOOKUP(C58,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Pudong Airport</v>
       </c>
     </row>
@@ -12878,11 +12935,11 @@
         <v>79</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>VLOOKUP(A59,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>China Airlines</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>VLOOKUP(C59,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -12897,11 +12954,11 @@
         <v>1868</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>VLOOKUP(A60,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>China Airlines</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>VLOOKUP(C60,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Chiang Kai-Shek International Airport</v>
       </c>
     </row>
@@ -12916,11 +12973,11 @@
         <v>1444</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>VLOOKUP(A61,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Cathay Pacific</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>VLOOKUP(C61,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Hong Kong International Airport</v>
       </c>
     </row>
@@ -12935,11 +12992,11 @@
         <v>1141</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>VLOOKUP(A62,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Delta</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>VLOOKUP(C62,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Schipol Airport</v>
       </c>
     </row>
@@ -12954,11 +13011,11 @@
         <v>79</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>VLOOKUP(A63,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Delta</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>VLOOKUP(C63,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -12973,11 +13030,11 @@
         <v>1255</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>VLOOKUP(A64,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Delta</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>VLOOKUP(C64,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Charles De Gaulle International Airport</v>
       </c>
     </row>
@@ -12992,11 +13049,11 @@
         <v>262</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>VLOOKUP(A65,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Delta</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>VLOOKUP(C65,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Cincinnati / Northern Kentucky International Airport</v>
       </c>
     </row>
@@ -13011,11 +13068,11 @@
         <v>303</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>VLOOKUP(A66,airline_lookup,2,FALSE)</f>
+        <f t="shared" ref="D66:D129" si="2">VLOOKUP(A66,airline_lookup,2,FALSE)</f>
         <v>Delta</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>VLOOKUP(C66,airport_lookup, 2,FALSE)</f>
+        <f t="shared" ref="E66:E129" si="3">VLOOKUP(C66,airport_lookup, 2,FALSE)</f>
         <v>Detroit Metro Airport</v>
       </c>
     </row>
@@ -13030,11 +13087,11 @@
         <v>473</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>VLOOKUP(A67,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>VLOOKUP(C67,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Honolulu International Airport</v>
       </c>
     </row>
@@ -13049,11 +13106,11 @@
         <v>1453</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>VLOOKUP(A68,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>VLOOKUP(C68,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Incheon International Airport</v>
       </c>
     </row>
@@ -13068,11 +13125,11 @@
         <v>558</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>VLOOKUP(A69,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>VLOOKUP(C69,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>John F. Kennedy International Airport</v>
       </c>
     </row>
@@ -13087,11 +13144,11 @@
         <v>605</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>VLOOKUP(A70,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>VLOOKUP(C70,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Los Angeles International Airport</v>
       </c>
     </row>
@@ -13106,11 +13163,11 @@
         <v>1533</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>VLOOKUP(A71,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>VLOOKUP(C71,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -13125,11 +13182,11 @@
         <v>1585</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>VLOOKUP(A72,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>VLOOKUP(C72,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Benito Juarez International Airport</v>
       </c>
     </row>
@@ -13144,11 +13201,11 @@
         <v>734</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>VLOOKUP(A73,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>VLOOKUP(C73,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Minneapolis/St. Paul International Airport</v>
       </c>
     </row>
@@ -13163,11 +13220,11 @@
         <v>853</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f>VLOOKUP(A74,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>VLOOKUP(C74,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Palm Springs International Airport</v>
       </c>
     </row>
@@ -13182,11 +13239,11 @@
         <v>1727</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f>VLOOKUP(A75,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>VLOOKUP(C75,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Pudong Airport</v>
       </c>
     </row>
@@ -13201,11 +13258,11 @@
         <v>931</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>VLOOKUP(A76,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>VLOOKUP(C76,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Seattle/Tacoma International Airport</v>
       </c>
     </row>
@@ -13220,11 +13277,11 @@
         <v>965</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>VLOOKUP(A77,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>VLOOKUP(C77,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Salt Lake City International Airport</v>
       </c>
     </row>
@@ -13239,11 +13296,11 @@
         <v>1868</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>VLOOKUP(A78,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Delta</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>VLOOKUP(C78,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Chiang Kai-Shek International Airport</v>
       </c>
     </row>
@@ -13258,11 +13315,11 @@
         <v>1349</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>VLOOKUP(A79,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Aer Lingus</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>VLOOKUP(C79,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Dublin International Airport</v>
       </c>
     </row>
@@ -13277,11 +13334,11 @@
         <v>1357</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f>VLOOKUP(A80,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Emirates</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>VLOOKUP(C80,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Dubai International Airport</v>
       </c>
     </row>
@@ -13296,11 +13353,11 @@
         <v>287</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f>VLOOKUP(A81,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Frontier Airlines</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>VLOOKUP(C81,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Denver International Airport</v>
       </c>
     </row>
@@ -13315,11 +13372,11 @@
         <v>79</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f>VLOOKUP(A82,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AirTran Airways</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>VLOOKUP(C82,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -13334,11 +13391,11 @@
         <v>287</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f>VLOOKUP(A83,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AirTran Airways</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>VLOOKUP(C83,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Denver International Airport</v>
       </c>
     </row>
@@ -13353,11 +13410,11 @@
         <v>680</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f>VLOOKUP(A84,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AirTran Airways</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>VLOOKUP(C84,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Chicago Midway Airport</v>
       </c>
     </row>
@@ -13372,11 +13429,11 @@
         <v>700</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f>VLOOKUP(A85,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AirTran Airways</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>VLOOKUP(C85,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>General Mitchell International Airport</v>
       </c>
     </row>
@@ -13391,11 +13448,11 @@
         <v>778</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f>VLOOKUP(A86,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AirTran Airways</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>VLOOKUP(C86,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Norfolk International Airport</v>
       </c>
     </row>
@@ -13410,11 +13467,11 @@
         <v>473</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f>VLOOKUP(A87,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Hawaiian Airlines</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>VLOOKUP(C87,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Honolulu International Airport</v>
       </c>
     </row>
@@ -13429,11 +13486,11 @@
         <v>600</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f>VLOOKUP(A88,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Hawaiian Airlines</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>VLOOKUP(C88,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Mccarran International Airport</v>
       </c>
     </row>
@@ -13448,11 +13505,11 @@
         <v>1533</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f>VLOOKUP(A89,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Iberia</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>VLOOKUP(C89,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -13467,11 +13524,11 @@
         <v>469</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f>VLOOKUP(A90,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Japan Airlines</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>VLOOKUP(C90,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Henderson Executive Airport</v>
       </c>
     </row>
@@ -13486,11 +13543,11 @@
         <v>1453</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f>VLOOKUP(A91,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Korean Air</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>VLOOKUP(C91,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Incheon International Airport</v>
       </c>
     </row>
@@ -13505,11 +13562,11 @@
         <v>1141</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f>VLOOKUP(A92,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>KLM Royal Dutch Airlines</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>VLOOKUP(C92,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Schipol Airport</v>
       </c>
     </row>
@@ -13524,11 +13581,11 @@
         <v>79</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f>VLOOKUP(A93,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>KLM Royal Dutch Airlines</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>VLOOKUP(C93,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -13543,11 +13600,11 @@
         <v>473</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f>VLOOKUP(A94,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>KLM Royal Dutch Airlines</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>VLOOKUP(C94,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Honolulu International Airport</v>
       </c>
     </row>
@@ -13562,11 +13619,11 @@
         <v>931</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f>VLOOKUP(A95,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>KLM Royal Dutch Airlines</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>VLOOKUP(C95,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Seattle/Tacoma International Airport</v>
       </c>
     </row>
@@ -13581,11 +13638,11 @@
         <v>1385</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f>VLOOKUP(A96,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Lufthansa</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>VLOOKUP(C96,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Frankfurt International Airport</v>
       </c>
     </row>
@@ -13600,11 +13657,11 @@
         <v>1533</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f>VLOOKUP(A97,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Lufthansa</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>VLOOKUP(C97,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -13619,11 +13676,11 @@
         <v>1611</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f>VLOOKUP(A98,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Lufthansa</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>VLOOKUP(C98,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Franz Josef Strauss International Airport</v>
       </c>
     </row>
@@ -13638,11 +13695,11 @@
         <v>1963</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f>VLOOKUP(A99,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Swiss International Airlines</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>VLOOKUP(C99,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Zurich International Airport</v>
       </c>
     </row>
@@ -13657,11 +13714,11 @@
         <v>1727</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f>VLOOKUP(A100,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>China Eastern Air</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>VLOOKUP(C100,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Pudong Airport</v>
       </c>
     </row>
@@ -13676,11 +13733,11 @@
         <v>1495</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f>VLOOKUP(A101,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>All Nippon Airways</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>VLOOKUP(C101,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Kansai International Airport</v>
       </c>
     </row>
@@ -13695,11 +13752,11 @@
         <v>1644</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f>VLOOKUP(A102,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>All Nippon Airways</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>VLOOKUP(C102,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Narita International Airport</v>
       </c>
     </row>
@@ -13714,11 +13771,11 @@
         <v>1129</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f>VLOOKUP(A103,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Air New Zealand</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>VLOOKUP(C103,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Auckland International Airport</v>
       </c>
     </row>
@@ -13733,11 +13790,11 @@
         <v>79</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f>VLOOKUP(A104,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Air New Zealand</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>VLOOKUP(C104,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -13752,11 +13809,11 @@
         <v>1385</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f>VLOOKUP(A105,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Air New Zealand</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>VLOOKUP(C105,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Frankfurt International Airport</v>
       </c>
     </row>
@@ -13771,11 +13828,11 @@
         <v>1395</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f>VLOOKUP(A106,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Air New Zealand</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f>VLOOKUP(C106,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Don Miguel Hidalgo International Airport</v>
       </c>
     </row>
@@ -13790,11 +13847,11 @@
         <v>1533</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f>VLOOKUP(A107,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Air New Zealand</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>VLOOKUP(C107,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -13809,11 +13866,11 @@
         <v>1585</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f>VLOOKUP(A108,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Air New Zealand</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>VLOOKUP(C108,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Benito Juarez International Airport</v>
       </c>
     </row>
@@ -13828,11 +13885,11 @@
         <v>1826</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f>VLOOKUP(A109,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Air New Zealand</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>VLOOKUP(C109,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Kingsford Smith International Airport</v>
       </c>
     </row>
@@ -13847,11 +13904,11 @@
         <v>1453</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f>VLOOKUP(A110,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Asiana Airlines</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>VLOOKUP(C110,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Incheon International Airport</v>
       </c>
     </row>
@@ -13866,11 +13923,11 @@
         <v>1599</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f>VLOOKUP(A111,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Philippine Airlines</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>VLOOKUP(C111,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Ninoy Aquino International Airport</v>
       </c>
     </row>
@@ -13885,11 +13942,11 @@
         <v>1291</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f>VLOOKUP(A112,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>SAS</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>VLOOKUP(C112,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Kastrup International Airport</v>
       </c>
     </row>
@@ -13904,11 +13961,11 @@
         <v>1444</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f>VLOOKUP(A113,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Singapore Airlines</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>VLOOKUP(C113,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Hong Kong International Airport</v>
       </c>
     </row>
@@ -13923,11 +13980,11 @@
         <v>1453</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f>VLOOKUP(A114,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Singapore Airlines</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>VLOOKUP(C114,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Incheon International Airport</v>
       </c>
     </row>
@@ -13942,11 +13999,11 @@
         <v>734</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f>VLOOKUP(A115,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Sun Country Airlines</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>VLOOKUP(C115,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Minneapolis/St. Paul International Airport</v>
       </c>
     </row>
@@ -13961,11 +14018,11 @@
         <v>6</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f>VLOOKUP(A116,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>VLOOKUP(C116,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Albuquerque International Sunport</v>
       </c>
     </row>
@@ -13980,11 +14037,11 @@
         <v>19</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f>VLOOKUP(A117,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>VLOOKUP(C117,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Arcata Airport</v>
       </c>
     </row>
@@ -13999,11 +14056,11 @@
         <v>1129</v>
       </c>
       <c r="D118" s="1" t="str">
-        <f>VLOOKUP(A118,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>VLOOKUP(C118,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Auckland International Airport</v>
       </c>
     </row>
@@ -14018,11 +14075,11 @@
         <v>79</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f>VLOOKUP(A119,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f>VLOOKUP(C119,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -14037,11 +14094,11 @@
         <v>90</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f>VLOOKUP(A120,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>VLOOKUP(C120,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Austin-Bergstrom International Airport</v>
       </c>
     </row>
@@ -14056,11 +14113,11 @@
         <v>114</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f>VLOOKUP(A121,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>VLOOKUP(C121,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Meadows Field Airport</v>
       </c>
     </row>
@@ -14075,11 +14132,11 @@
         <v>145</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f>VLOOKUP(A122,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>VLOOKUP(C122,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Boise Airport</v>
       </c>
     </row>
@@ -14094,11 +14151,11 @@
         <v>147</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f>VLOOKUP(A123,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>VLOOKUP(C123,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Boston Logan International Airport</v>
       </c>
     </row>
@@ -14113,11 +14170,11 @@
         <v>177</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f>VLOOKUP(A124,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>VLOOKUP(C124,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Burbank Bob Hope Airport</v>
       </c>
     </row>
@@ -14132,11 +14189,11 @@
         <v>181</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f>VLOOKUP(A125,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>VLOOKUP(C125,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Baltimore / Washington International Airport</v>
       </c>
     </row>
@@ -14151,11 +14208,11 @@
         <v>1255</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f>VLOOKUP(A126,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>VLOOKUP(C126,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Charles De Gaulle International Airport</v>
       </c>
     </row>
@@ -14170,11 +14227,11 @@
         <v>198</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f>VLOOKUP(A127,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>VLOOKUP(C127,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Jack Mc Namara Field Airport</v>
       </c>
     </row>
@@ -14189,11 +14246,11 @@
         <v>217</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f>VLOOKUP(A128,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>VLOOKUP(C128,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Chico Municipal Airport</v>
       </c>
     </row>
@@ -14208,11 +14265,11 @@
         <v>225</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f>VLOOKUP(A129,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>United Airlines</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>VLOOKUP(C129,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Cleveland Hopkins International Airport</v>
       </c>
     </row>
@@ -14227,11 +14284,11 @@
         <v>246</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f>VLOOKUP(A130,airline_lookup,2,FALSE)</f>
+        <f t="shared" ref="D130:D193" si="4">VLOOKUP(A130,airline_lookup,2,FALSE)</f>
         <v>United Airlines</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>VLOOKUP(C130,airport_lookup, 2,FALSE)</f>
+        <f t="shared" ref="E130:E193" si="5">VLOOKUP(C130,airport_lookup, 2,FALSE)</f>
         <v>Colorado Springs Airport</v>
       </c>
     </row>
@@ -14246,11 +14303,11 @@
         <v>1309</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f>VLOOKUP(A131,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>VLOOKUP(C131,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Cancun International Airport</v>
       </c>
     </row>
@@ -14265,11 +14322,11 @@
         <v>280</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f>VLOOKUP(A132,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>VLOOKUP(C132,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Ronald Reagan Washington National Airport</v>
       </c>
     </row>
@@ -14284,11 +14341,11 @@
         <v>287</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f>VLOOKUP(A133,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>VLOOKUP(C133,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Denver International Airport</v>
       </c>
     </row>
@@ -14303,11 +14360,11 @@
         <v>289</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f>VLOOKUP(A134,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>VLOOKUP(C134,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Dallas/Fort Worth International Airport</v>
       </c>
     </row>
@@ -14322,11 +14379,11 @@
         <v>341</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f>VLOOKUP(A135,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>VLOOKUP(C135,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Eugene Airport</v>
       </c>
     </row>
@@ -14341,11 +14398,11 @@
         <v>349</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f>VLOOKUP(A136,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>VLOOKUP(C136,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Newark Liberty International Airport</v>
       </c>
     </row>
@@ -14360,11 +14417,11 @@
         <v>362</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f>VLOOKUP(A137,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>VLOOKUP(C137,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Fresno Air Terminal</v>
       </c>
     </row>
@@ -14379,11 +14436,11 @@
         <v>373</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f>VLOOKUP(A138,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>VLOOKUP(C138,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Fort Lauderdale Hollywood International Airport</v>
       </c>
     </row>
@@ -14398,11 +14455,11 @@
         <v>1385</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f>VLOOKUP(A139,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>VLOOKUP(C139,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Frankfurt International Airport</v>
       </c>
     </row>
@@ -14417,11 +14474,11 @@
         <v>1395</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f>VLOOKUP(A140,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>VLOOKUP(C140,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Don Miguel Hidalgo International Airport</v>
       </c>
     </row>
@@ -14436,11 +14493,11 @@
         <v>1444</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f>VLOOKUP(A141,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f>VLOOKUP(C141,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Hong Kong International Airport</v>
       </c>
     </row>
@@ -14455,11 +14512,11 @@
         <v>473</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f>VLOOKUP(A142,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f>VLOOKUP(C142,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Honolulu International Airport</v>
       </c>
     </row>
@@ -14474,11 +14531,11 @@
         <v>508</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f>VLOOKUP(A143,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f>VLOOKUP(C143,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Washington Dulles International Airport</v>
       </c>
     </row>
@@ -14493,11 +14550,11 @@
         <v>510</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f>VLOOKUP(A144,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f>VLOOKUP(C144,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Bush Intercontinental Airport</v>
       </c>
     </row>
@@ -14512,11 +14569,11 @@
         <v>1453</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f>VLOOKUP(A145,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f>VLOOKUP(C145,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Incheon International Airport</v>
       </c>
     </row>
@@ -14531,11 +14588,11 @@
         <v>530</v>
       </c>
       <c r="D146" s="1" t="str">
-        <f>VLOOKUP(A146,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f>VLOOKUP(C146,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Indianapolis International Airport</v>
       </c>
     </row>
@@ -14550,11 +14607,11 @@
         <v>558</v>
       </c>
       <c r="D147" s="1" t="str">
-        <f>VLOOKUP(A147,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f>VLOOKUP(C147,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>John F. Kennedy International Airport</v>
       </c>
     </row>
@@ -14569,11 +14626,11 @@
         <v>1495</v>
       </c>
       <c r="D148" s="1" t="str">
-        <f>VLOOKUP(A148,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f>VLOOKUP(C148,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Kansai International Airport</v>
       </c>
     </row>
@@ -14588,11 +14645,11 @@
         <v>582</v>
       </c>
       <c r="D149" s="1" t="str">
-        <f>VLOOKUP(A149,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f>VLOOKUP(C149,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Kona International Airport</v>
       </c>
     </row>
@@ -14607,11 +14664,11 @@
         <v>600</v>
       </c>
       <c r="D150" s="1" t="str">
-        <f>VLOOKUP(A150,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f>VLOOKUP(C150,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Mccarran International Airport</v>
       </c>
     </row>
@@ -14626,11 +14683,11 @@
         <v>605</v>
       </c>
       <c r="D151" s="1" t="str">
-        <f>VLOOKUP(A151,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f>VLOOKUP(C151,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Los Angeles International Airport</v>
       </c>
     </row>
@@ -14645,11 +14702,11 @@
         <v>1533</v>
       </c>
       <c r="D152" s="1" t="str">
-        <f>VLOOKUP(A152,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f>VLOOKUP(C152,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -14664,11 +14721,11 @@
         <v>632</v>
       </c>
       <c r="D153" s="1" t="str">
-        <f>VLOOKUP(A153,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f>VLOOKUP(C153,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Lihue Airport</v>
       </c>
     </row>
@@ -14683,11 +14740,11 @@
         <v>636</v>
       </c>
       <c r="D154" s="1" t="str">
-        <f>VLOOKUP(A154,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f>VLOOKUP(C154,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Klamath Falls Airport</v>
       </c>
     </row>
@@ -14702,11 +14759,11 @@
         <v>668</v>
       </c>
       <c r="D155" s="1" t="str">
-        <f>VLOOKUP(A155,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E155" s="1" t="str">
-        <f>VLOOKUP(C155,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Kansas City International Airport</v>
       </c>
     </row>
@@ -14721,11 +14778,11 @@
         <v>672</v>
       </c>
       <c r="D156" s="1" t="str">
-        <f>VLOOKUP(A156,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f>VLOOKUP(C156,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Orlando International Airport</v>
       </c>
     </row>
@@ -14740,11 +14797,11 @@
         <v>1585</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f>VLOOKUP(A157,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f>VLOOKUP(C157,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Benito Juarez International Airport</v>
       </c>
     </row>
@@ -14759,11 +14816,11 @@
         <v>688</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f>VLOOKUP(A158,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f>VLOOKUP(C158,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Medford Rogue Valley International Airport</v>
       </c>
     </row>
@@ -14778,11 +14835,11 @@
         <v>718</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f>VLOOKUP(A159,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f>VLOOKUP(C159,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Modesto City-County Airport</v>
       </c>
     </row>
@@ -14797,11 +14854,11 @@
         <v>726</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f>VLOOKUP(A160,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f>VLOOKUP(C160,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Monterey Peninsula Airport</v>
       </c>
     </row>
@@ -14816,11 +14873,11 @@
         <v>734</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f>VLOOKUP(A161,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f>VLOOKUP(C161,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Minneapolis/St. Paul International Airport</v>
       </c>
     </row>
@@ -14835,11 +14892,11 @@
         <v>738</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f>VLOOKUP(A162,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f>VLOOKUP(C162,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>New Orleans International Airport</v>
       </c>
     </row>
@@ -14854,11 +14911,11 @@
         <v>1611</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f>VLOOKUP(A163,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f>VLOOKUP(C163,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Franz Josef Strauss International Airport</v>
       </c>
     </row>
@@ -14873,11 +14930,11 @@
         <v>1644</v>
       </c>
       <c r="D164" s="1" t="str">
-        <f>VLOOKUP(A164,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f>VLOOKUP(C164,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Narita International Airport</v>
       </c>
     </row>
@@ -14892,11 +14949,11 @@
         <v>762</v>
       </c>
       <c r="D165" s="1" t="str">
-        <f>VLOOKUP(A165,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f>VLOOKUP(C165,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Kahului Airport</v>
       </c>
     </row>
@@ -14911,11 +14968,11 @@
         <v>764</v>
       </c>
       <c r="D166" s="1" t="str">
-        <f>VLOOKUP(A166,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f>VLOOKUP(C166,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Will Rogers World Airport</v>
       </c>
     </row>
@@ -14930,11 +14987,11 @@
         <v>772</v>
       </c>
       <c r="D167" s="1" t="str">
-        <f>VLOOKUP(A167,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f>VLOOKUP(C167,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Ontario International Airport</v>
       </c>
     </row>
@@ -14949,11 +15006,11 @@
         <v>776</v>
       </c>
       <c r="D168" s="1" t="str">
-        <f>VLOOKUP(A168,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f>VLOOKUP(C168,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Chicago O'hare International Airport</v>
       </c>
     </row>
@@ -14968,11 +15025,11 @@
         <v>785</v>
       </c>
       <c r="D169" s="1" t="str">
-        <f>VLOOKUP(A169,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E169" s="1" t="str">
-        <f>VLOOKUP(C169,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>North Bend Municipal Airport</v>
       </c>
     </row>
@@ -14987,11 +15044,11 @@
         <v>801</v>
       </c>
       <c r="D170" s="1" t="str">
-        <f>VLOOKUP(A170,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E170" s="1" t="str">
-        <f>VLOOKUP(C170,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Portland International Airport</v>
       </c>
     </row>
@@ -15006,11 +15063,11 @@
         <v>1684</v>
       </c>
       <c r="D171" s="1" t="str">
-        <f>VLOOKUP(A171,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E171" s="1" t="str">
-        <f>VLOOKUP(C171,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Beijing Capital International Airport</v>
       </c>
     </row>
@@ -15025,11 +15082,11 @@
         <v>813</v>
       </c>
       <c r="D172" s="1" t="str">
-        <f>VLOOKUP(A172,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E172" s="1" t="str">
-        <f>VLOOKUP(C172,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Philadelphia International Airport</v>
       </c>
     </row>
@@ -15044,11 +15101,11 @@
         <v>817</v>
       </c>
       <c r="D173" s="1" t="str">
-        <f>VLOOKUP(A173,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E173" s="1" t="str">
-        <f>VLOOKUP(C173,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Phoenix Sky Harbor International Airport</v>
       </c>
     </row>
@@ -15063,11 +15120,11 @@
         <v>829</v>
       </c>
       <c r="D174" s="1" t="str">
-        <f>VLOOKUP(A174,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E174" s="1" t="str">
-        <f>VLOOKUP(C174,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Pittsburgh International Airport</v>
       </c>
     </row>
@@ -15082,11 +15139,11 @@
         <v>845</v>
       </c>
       <c r="D175" s="1" t="str">
-        <f>VLOOKUP(A175,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E175" s="1" t="str">
-        <f>VLOOKUP(C175,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Tri-Cities Airport</v>
       </c>
     </row>
@@ -15101,11 +15158,11 @@
         <v>853</v>
       </c>
       <c r="D176" s="1" t="str">
-        <f>VLOOKUP(A176,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E176" s="1" t="str">
-        <f>VLOOKUP(C176,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Palm Springs International Airport</v>
       </c>
     </row>
@@ -15120,11 +15177,11 @@
         <v>1727</v>
       </c>
       <c r="D177" s="1" t="str">
-        <f>VLOOKUP(A177,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f>VLOOKUP(C177,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Pudong Airport</v>
       </c>
     </row>
@@ -15139,11 +15196,11 @@
         <v>1729</v>
       </c>
       <c r="D178" s="1" t="str">
-        <f>VLOOKUP(A178,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E178" s="1" t="str">
-        <f>VLOOKUP(C178,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Lic Gustavo Diaz Ordaz International Air</v>
       </c>
     </row>
@@ -15158,11 +15215,11 @@
         <v>867</v>
       </c>
       <c r="D179" s="1" t="str">
-        <f>VLOOKUP(A179,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E179" s="1" t="str">
-        <f>VLOOKUP(C179,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Redding Municipal Airport</v>
       </c>
     </row>
@@ -15177,11 +15234,11 @@
         <v>871</v>
       </c>
       <c r="D180" s="1" t="str">
-        <f>VLOOKUP(A180,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E180" s="1" t="str">
-        <f>VLOOKUP(C180,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Roberts Field</v>
       </c>
     </row>
@@ -15196,11 +15253,11 @@
         <v>873</v>
       </c>
       <c r="D181" s="1" t="str">
-        <f>VLOOKUP(A181,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E181" s="1" t="str">
-        <f>VLOOKUP(C181,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Raleigh-Durham International Airport</v>
       </c>
     </row>
@@ -15215,11 +15272,11 @@
         <v>887</v>
       </c>
       <c r="D182" s="1" t="str">
-        <f>VLOOKUP(A182,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E182" s="1" t="str">
-        <f>VLOOKUP(C182,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Reno-Tahoe International Airport</v>
       </c>
     </row>
@@ -15234,11 +15291,11 @@
         <v>1757</v>
       </c>
       <c r="D183" s="1" t="str">
-        <f>VLOOKUP(A183,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E183" s="1" t="str">
-        <f>VLOOKUP(C183,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Comalapa International Airport</v>
       </c>
     </row>
@@ -15253,11 +15310,11 @@
         <v>905</v>
       </c>
       <c r="D184" s="1" t="str">
-        <f>VLOOKUP(A184,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E184" s="1" t="str">
-        <f>VLOOKUP(C184,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>San Diego International Airport</v>
       </c>
     </row>
@@ -15272,11 +15329,11 @@
         <v>907</v>
       </c>
       <c r="D185" s="1" t="str">
-        <f>VLOOKUP(A185,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E185" s="1" t="str">
-        <f>VLOOKUP(C185,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>San Antonio International Airport</v>
       </c>
     </row>
@@ -15291,11 +15348,11 @@
         <v>913</v>
       </c>
       <c r="D186" s="1" t="str">
-        <f>VLOOKUP(A186,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E186" s="1" t="str">
-        <f>VLOOKUP(C186,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Santa Barbara Airport</v>
       </c>
     </row>
@@ -15310,11 +15367,11 @@
         <v>917</v>
       </c>
       <c r="D187" s="1" t="str">
-        <f>VLOOKUP(A187,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E187" s="1" t="str">
-        <f>VLOOKUP(C187,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>San Luis County Regional Airport</v>
       </c>
     </row>
@@ -15329,11 +15386,11 @@
         <v>931</v>
       </c>
       <c r="D188" s="1" t="str">
-        <f>VLOOKUP(A188,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E188" s="1" t="str">
-        <f>VLOOKUP(C188,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Seattle/Tacoma International Airport</v>
       </c>
     </row>
@@ -15348,11 +15405,11 @@
         <v>1777</v>
       </c>
       <c r="D189" s="1" t="str">
-        <f>VLOOKUP(A189,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E189" s="1" t="str">
-        <f>VLOOKUP(C189,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Los Cabos International Airport</v>
       </c>
     </row>
@@ -15367,11 +15424,11 @@
         <v>965</v>
       </c>
       <c r="D190" s="1" t="str">
-        <f>VLOOKUP(A190,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E190" s="1" t="str">
-        <f>VLOOKUP(C190,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Salt Lake City International Airport</v>
       </c>
     </row>
@@ -15386,11 +15443,11 @@
         <v>971</v>
       </c>
       <c r="D191" s="1" t="str">
-        <f>VLOOKUP(A191,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E191" s="1" t="str">
-        <f>VLOOKUP(C191,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Sacramento International Airport</v>
       </c>
     </row>
@@ -15405,11 +15462,11 @@
         <v>975</v>
       </c>
       <c r="D192" s="1" t="str">
-        <f>VLOOKUP(A192,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E192" s="1" t="str">
-        <f>VLOOKUP(C192,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>John Wayne Airport</v>
       </c>
     </row>
@@ -15424,11 +15481,11 @@
         <v>991</v>
       </c>
       <c r="D193" s="1" t="str">
-        <f>VLOOKUP(A193,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>United Airlines</v>
       </c>
       <c r="E193" s="1" t="str">
-        <f>VLOOKUP(C193,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Lambert-St. Louis International Airport</v>
       </c>
     </row>
@@ -15443,11 +15500,11 @@
         <v>1826</v>
       </c>
       <c r="D194" s="1" t="str">
-        <f>VLOOKUP(A194,airline_lookup,2,FALSE)</f>
+        <f t="shared" ref="D194:D250" si="6">VLOOKUP(A194,airline_lookup,2,FALSE)</f>
         <v>United Airlines</v>
       </c>
       <c r="E194" s="1" t="str">
-        <f>VLOOKUP(C194,airport_lookup, 2,FALSE)</f>
+        <f t="shared" ref="E194:E250" si="7">VLOOKUP(C194,airport_lookup, 2,FALSE)</f>
         <v>Kingsford Smith International Airport</v>
       </c>
     </row>
@@ -15462,11 +15519,11 @@
         <v>1868</v>
       </c>
       <c r="D195" s="1" t="str">
-        <f>VLOOKUP(A195,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E195" s="1" t="str">
-        <f>VLOOKUP(C195,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Chiang Kai-Shek International Airport</v>
       </c>
     </row>
@@ -15481,11 +15538,11 @@
         <v>1036</v>
       </c>
       <c r="D196" s="1" t="str">
-        <f>VLOOKUP(A196,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E196" s="1" t="str">
-        <f>VLOOKUP(C196,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Tucson International Airport</v>
       </c>
     </row>
@@ -15500,11 +15557,11 @@
         <v>1913</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f>VLOOKUP(A197,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E197" s="1" t="str">
-        <f>VLOOKUP(C197,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Edmonton International Airport</v>
       </c>
     </row>
@@ -15519,11 +15576,11 @@
         <v>1935</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f>VLOOKUP(A198,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E198" s="1" t="str">
-        <f>VLOOKUP(C198,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Montreal Dorval Airport</v>
       </c>
     </row>
@@ -15538,11 +15595,11 @@
         <v>1937</v>
       </c>
       <c r="D199" s="1" t="str">
-        <f>VLOOKUP(A199,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E199" s="1" t="str">
-        <f>VLOOKUP(C199,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Vancouver International Airport</v>
       </c>
     </row>
@@ -15557,11 +15614,11 @@
         <v>1945</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f>VLOOKUP(A200,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E200" s="1" t="str">
-        <f>VLOOKUP(C200,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Calgary International Airport</v>
       </c>
     </row>
@@ -15576,11 +15633,11 @@
         <v>1947</v>
       </c>
       <c r="D201" s="1" t="str">
-        <f>VLOOKUP(A201,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E201" s="1" t="str">
-        <f>VLOOKUP(C201,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Victoria International Airport</v>
       </c>
     </row>
@@ -15595,11 +15652,11 @@
         <v>1951</v>
       </c>
       <c r="D202" s="1" t="str">
-        <f>VLOOKUP(A202,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E202" s="1" t="str">
-        <f>VLOOKUP(C202,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Lester B Pearson International Airport</v>
       </c>
     </row>
@@ -15614,11 +15671,11 @@
         <v>1963</v>
       </c>
       <c r="D203" s="1" t="str">
-        <f>VLOOKUP(A203,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>United Airlines</v>
       </c>
       <c r="E203" s="1" t="str">
-        <f>VLOOKUP(C203,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Zurich International Airport</v>
       </c>
     </row>
@@ -15633,11 +15690,11 @@
         <v>1533</v>
       </c>
       <c r="D204" s="1" t="str">
-        <f>VLOOKUP(A204,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Transaero</v>
       </c>
       <c r="E204" s="1" t="str">
-        <f>VLOOKUP(C204,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -15652,11 +15709,11 @@
         <v>1129</v>
       </c>
       <c r="D205" s="1" t="str">
-        <f>VLOOKUP(A205,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E205" s="1" t="str">
-        <f>VLOOKUP(C205,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Auckland International Airport</v>
       </c>
     </row>
@@ -15671,11 +15728,11 @@
         <v>231</v>
       </c>
       <c r="D206" s="1" t="str">
-        <f>VLOOKUP(A206,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E206" s="1" t="str">
-        <f>VLOOKUP(C206,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Charlotte/Douglas International Airport</v>
       </c>
     </row>
@@ -15690,11 +15747,11 @@
         <v>289</v>
       </c>
       <c r="D207" s="1" t="str">
-        <f>VLOOKUP(A207,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E207" s="1" t="str">
-        <f>VLOOKUP(C207,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Dallas/Fort Worth International Airport</v>
       </c>
     </row>
@@ -15709,11 +15766,11 @@
         <v>1444</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f>VLOOKUP(A208,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E208" s="1" t="str">
-        <f>VLOOKUP(C208,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Hong Kong International Airport</v>
       </c>
     </row>
@@ -15728,11 +15785,11 @@
         <v>1453</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f>VLOOKUP(A209,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E209" s="1" t="str">
-        <f>VLOOKUP(C209,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Incheon International Airport</v>
       </c>
     </row>
@@ -15747,11 +15804,11 @@
         <v>558</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f>VLOOKUP(A210,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E210" s="1" t="str">
-        <f>VLOOKUP(C210,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>John F. Kennedy International Airport</v>
       </c>
     </row>
@@ -15766,11 +15823,11 @@
         <v>605</v>
       </c>
       <c r="D211" s="1" t="str">
-        <f>VLOOKUP(A211,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E211" s="1" t="str">
-        <f>VLOOKUP(C211,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Los Angeles International Airport</v>
       </c>
     </row>
@@ -15785,11 +15842,11 @@
         <v>698</v>
       </c>
       <c r="D212" s="1" t="str">
-        <f>VLOOKUP(A212,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E212" s="1" t="str">
-        <f>VLOOKUP(C212,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Miami International Airport</v>
       </c>
     </row>
@@ -15804,11 +15861,11 @@
         <v>776</v>
       </c>
       <c r="D213" s="1" t="str">
-        <f>VLOOKUP(A213,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E213" s="1" t="str">
-        <f>VLOOKUP(C213,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Chicago O'hare International Airport</v>
       </c>
     </row>
@@ -15823,11 +15880,11 @@
         <v>1684</v>
       </c>
       <c r="D214" s="1" t="str">
-        <f>VLOOKUP(A214,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E214" s="1" t="str">
-        <f>VLOOKUP(C214,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Beijing Capital International Airport</v>
       </c>
     </row>
@@ -15842,11 +15899,11 @@
         <v>813</v>
       </c>
       <c r="D215" s="1" t="str">
-        <f>VLOOKUP(A215,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E215" s="1" t="str">
-        <f>VLOOKUP(C215,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Philadelphia International Airport</v>
       </c>
     </row>
@@ -15861,11 +15918,11 @@
         <v>817</v>
       </c>
       <c r="D216" s="1" t="str">
-        <f>VLOOKUP(A216,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E216" s="1" t="str">
-        <f>VLOOKUP(C216,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Phoenix Sky Harbor International Airport</v>
       </c>
     </row>
@@ -15880,11 +15937,11 @@
         <v>1757</v>
       </c>
       <c r="D217" s="1" t="str">
-        <f>VLOOKUP(A217,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E217" s="1" t="str">
-        <f>VLOOKUP(C217,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Comalapa International Airport</v>
       </c>
     </row>
@@ -15899,11 +15956,11 @@
         <v>1868</v>
       </c>
       <c r="D218" s="1" t="str">
-        <f>VLOOKUP(A218,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E218" s="1" t="str">
-        <f>VLOOKUP(C218,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Chiang Kai-Shek International Airport</v>
       </c>
     </row>
@@ -15918,11 +15975,11 @@
         <v>79</v>
       </c>
       <c r="D219" s="1" t="str">
-        <f>VLOOKUP(A219,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin Atlantic</v>
       </c>
       <c r="E219" s="1" t="str">
-        <f>VLOOKUP(C219,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -15937,11 +15994,11 @@
         <v>1533</v>
       </c>
       <c r="D220" s="1" t="str">
-        <f>VLOOKUP(A220,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin Atlantic</v>
       </c>
       <c r="E220" s="1" t="str">
-        <f>VLOOKUP(C220,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>London Heathrow Airport</v>
       </c>
     </row>
@@ -15956,11 +16013,11 @@
         <v>90</v>
       </c>
       <c r="D221" s="1" t="str">
-        <f>VLOOKUP(A221,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E221" s="1" t="str">
-        <f>VLOOKUP(C221,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Austin-Bergstrom International Airport</v>
       </c>
     </row>
@@ -15975,11 +16032,11 @@
         <v>147</v>
       </c>
       <c r="D222" s="1" t="str">
-        <f>VLOOKUP(A222,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E222" s="1" t="str">
-        <f>VLOOKUP(C222,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Boston Logan International Airport</v>
       </c>
     </row>
@@ -15994,11 +16051,11 @@
         <v>1309</v>
       </c>
       <c r="D223" s="1" t="str">
-        <f>VLOOKUP(A223,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E223" s="1" t="str">
-        <f>VLOOKUP(C223,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Cancun International Airport</v>
       </c>
     </row>
@@ -16013,11 +16070,11 @@
         <v>280</v>
       </c>
       <c r="D224" s="1" t="str">
-        <f>VLOOKUP(A224,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E224" s="1" t="str">
-        <f>VLOOKUP(C224,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Ronald Reagan Washington National Airport</v>
       </c>
     </row>
@@ -16032,11 +16089,11 @@
         <v>289</v>
       </c>
       <c r="D225" s="1" t="str">
-        <f>VLOOKUP(A225,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E225" s="1" t="str">
-        <f>VLOOKUP(C225,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Dallas/Fort Worth International Airport</v>
       </c>
     </row>
@@ -16051,11 +16108,11 @@
         <v>349</v>
       </c>
       <c r="D226" s="1" t="str">
-        <f>VLOOKUP(A226,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E226" s="1" t="str">
-        <f>VLOOKUP(C226,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Newark Liberty International Airport</v>
       </c>
     </row>
@@ -16070,11 +16127,11 @@
         <v>373</v>
       </c>
       <c r="D227" s="1" t="str">
-        <f>VLOOKUP(A227,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E227" s="1" t="str">
-        <f>VLOOKUP(C227,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Fort Lauderdale Hollywood International Airport</v>
       </c>
     </row>
@@ -16089,11 +16146,11 @@
         <v>508</v>
       </c>
       <c r="D228" s="1" t="str">
-        <f>VLOOKUP(A228,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E228" s="1" t="str">
-        <f>VLOOKUP(C228,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Washington Dulles International Airport</v>
       </c>
     </row>
@@ -16108,11 +16165,11 @@
         <v>558</v>
       </c>
       <c r="D229" s="1" t="str">
-        <f>VLOOKUP(A229,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E229" s="1" t="str">
-        <f>VLOOKUP(C229,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>John F. Kennedy International Airport</v>
       </c>
     </row>
@@ -16127,11 +16184,11 @@
         <v>600</v>
       </c>
       <c r="D230" s="1" t="str">
-        <f>VLOOKUP(A230,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E230" s="1" t="str">
-        <f>VLOOKUP(C230,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Mccarran International Airport</v>
       </c>
     </row>
@@ -16146,11 +16203,11 @@
         <v>605</v>
       </c>
       <c r="D231" s="1" t="str">
-        <f>VLOOKUP(A231,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E231" s="1" t="str">
-        <f>VLOOKUP(C231,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Los Angeles International Airport</v>
       </c>
     </row>
@@ -16165,11 +16222,11 @@
         <v>672</v>
       </c>
       <c r="D232" s="1" t="str">
-        <f>VLOOKUP(A232,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E232" s="1" t="str">
-        <f>VLOOKUP(C232,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Orlando International Airport</v>
       </c>
     </row>
@@ -16184,11 +16241,11 @@
         <v>776</v>
       </c>
       <c r="D233" s="1" t="str">
-        <f>VLOOKUP(A233,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E233" s="1" t="str">
-        <f>VLOOKUP(C233,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Chicago O'hare International Airport</v>
       </c>
     </row>
@@ -16203,11 +16260,11 @@
         <v>801</v>
       </c>
       <c r="D234" s="1" t="str">
-        <f>VLOOKUP(A234,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E234" s="1" t="str">
-        <f>VLOOKUP(C234,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Portland International Airport</v>
       </c>
     </row>
@@ -16222,11 +16279,11 @@
         <v>813</v>
       </c>
       <c r="D235" s="1" t="str">
-        <f>VLOOKUP(A235,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E235" s="1" t="str">
-        <f>VLOOKUP(C235,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Philadelphia International Airport</v>
       </c>
     </row>
@@ -16241,11 +16298,11 @@
         <v>1729</v>
       </c>
       <c r="D236" s="1" t="str">
-        <f>VLOOKUP(A236,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E236" s="1" t="str">
-        <f>VLOOKUP(C236,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Lic Gustavo Diaz Ordaz International Air</v>
       </c>
     </row>
@@ -16260,11 +16317,11 @@
         <v>905</v>
       </c>
       <c r="D237" s="1" t="str">
-        <f>VLOOKUP(A237,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E237" s="1" t="str">
-        <f>VLOOKUP(C237,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>San Diego International Airport</v>
       </c>
     </row>
@@ -16279,11 +16336,11 @@
         <v>931</v>
       </c>
       <c r="D238" s="1" t="str">
-        <f>VLOOKUP(A238,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E238" s="1" t="str">
-        <f>VLOOKUP(C238,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Seattle/Tacoma International Airport</v>
       </c>
     </row>
@@ -16298,11 +16355,11 @@
         <v>1777</v>
       </c>
       <c r="D239" s="1" t="str">
-        <f>VLOOKUP(A239,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Virgin America</v>
       </c>
       <c r="E239" s="1" t="str">
-        <f>VLOOKUP(C239,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Los Cabos International Airport</v>
       </c>
     </row>
@@ -16317,11 +16374,11 @@
         <v>79</v>
       </c>
       <c r="D240" s="1" t="str">
-        <f>VLOOKUP(A240,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E240" s="1" t="str">
-        <f>VLOOKUP(C240,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Atlanta International Airport</v>
       </c>
     </row>
@@ -16336,11 +16393,11 @@
         <v>287</v>
       </c>
       <c r="D241" s="1" t="str">
-        <f>VLOOKUP(A241,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E241" s="1" t="str">
-        <f>VLOOKUP(C241,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Denver International Airport</v>
       </c>
     </row>
@@ -16355,11 +16412,11 @@
         <v>600</v>
       </c>
       <c r="D242" s="1" t="str">
-        <f>VLOOKUP(A242,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E242" s="1" t="str">
-        <f>VLOOKUP(C242,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Mccarran International Airport</v>
       </c>
     </row>
@@ -16374,11 +16431,11 @@
         <v>605</v>
       </c>
       <c r="D243" s="1" t="str">
-        <f>VLOOKUP(A243,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E243" s="1" t="str">
-        <f>VLOOKUP(C243,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Los Angeles International Airport</v>
       </c>
     </row>
@@ -16393,11 +16450,11 @@
         <v>680</v>
       </c>
       <c r="D244" s="1" t="str">
-        <f>VLOOKUP(A244,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E244" s="1" t="str">
-        <f>VLOOKUP(C244,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Chicago Midway Airport</v>
       </c>
     </row>
@@ -16412,11 +16469,11 @@
         <v>700</v>
       </c>
       <c r="D245" s="1" t="str">
-        <f>VLOOKUP(A245,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E245" s="1" t="str">
-        <f>VLOOKUP(C245,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>General Mitchell International Airport</v>
       </c>
     </row>
@@ -16431,11 +16488,11 @@
         <v>817</v>
       </c>
       <c r="D246" s="1" t="str">
-        <f>VLOOKUP(A246,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E246" s="1" t="str">
-        <f>VLOOKUP(C246,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Phoenix Sky Harbor International Airport</v>
       </c>
     </row>
@@ -16450,11 +16507,11 @@
         <v>905</v>
       </c>
       <c r="D247" s="1" t="str">
-        <f>VLOOKUP(A247,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E247" s="1" t="str">
-        <f>VLOOKUP(C247,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>San Diego International Airport</v>
       </c>
     </row>
@@ -16469,11 +16526,11 @@
         <v>975</v>
       </c>
       <c r="D248" s="1" t="str">
-        <f>VLOOKUP(A248,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Southwest Airlines</v>
       </c>
       <c r="E248" s="1" t="str">
-        <f>VLOOKUP(C248,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>John Wayne Airport</v>
       </c>
     </row>
@@ -16488,11 +16545,11 @@
         <v>1937</v>
       </c>
       <c r="D249" s="1" t="str">
-        <f>VLOOKUP(A249,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>WestJet</v>
       </c>
       <c r="E249" s="1" t="str">
-        <f>VLOOKUP(C249,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Vancouver International Airport</v>
       </c>
     </row>
@@ -16507,11 +16564,11 @@
         <v>1945</v>
       </c>
       <c r="D250" s="1" t="str">
-        <f>VLOOKUP(A250,airline_lookup,2,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>WestJet</v>
       </c>
       <c r="E250" s="1" t="str">
-        <f>VLOOKUP(C250,airport_lookup, 2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Calgary International Airport</v>
       </c>
     </row>
@@ -16525,7 +16582,7 @@
   <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -20424,7 +20481,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B486">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B486">
     <sortCondition ref="A473"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20435,7 +20492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1165"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -29767,7 +29824,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B1168">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1168">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
